--- a/src/test/resources/testdata/batch11example.xlsx
+++ b/src/test/resources/testdata/batch11example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebas\IdeaProjects\HrmsBatch11\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86EF8675-A688-45A0-AE9A-F158B1E1E23E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0108F032-7222-4B40-8725-E7EB79B2AE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92F68688-6250-4102-9565-81740220D68F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FirstName</t>
   </si>
@@ -64,24 +64,6 @@
   </si>
   <si>
     <t>Syntax123</t>
-  </si>
-  <si>
-    <t>Silvana</t>
-  </si>
-  <si>
-    <t>silvana12345</t>
-  </si>
-  <si>
-    <t>Sohana</t>
-  </si>
-  <si>
-    <t>tamso</t>
-  </si>
-  <si>
-    <t>ammar</t>
-  </si>
-  <si>
-    <t>sohana12345</t>
   </si>
   <si>
     <t>MiddleName</t>
@@ -439,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D46B549-7F9C-4224-8054-D2025C0F12E8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -485,52 +467,12 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
